--- a/Batch/Batch Update Output/Batch Function 20170130 For Dev.xlsx
+++ b/Batch/Batch Update Output/Batch Function 20170130 For Dev.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\my\Project\AIS-CPAC\Outsource Task\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\my\Project\CPAC\Batch\Batch Update Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1770,7 +1770,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="14"/>
@@ -1783,7 +1783,7 @@
       <sz val="10"/>
       <color indexed="64"/>
       <name val="Arial"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -2180,8 +2180,8 @@
   <dimension ref="A1:G92"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C97" sqref="C97"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.5"/>
